--- a/data/evaluation/evaluation_South_Autumn_Oranges.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Oranges.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2174.970361689877</v>
+        <v>2222.329275539162</v>
       </c>
       <c r="C4" t="n">
-        <v>11674197.87394476</v>
+        <v>12245789.49824805</v>
       </c>
       <c r="D4" t="n">
-        <v>3416.752533319433</v>
+        <v>3499.398448054758</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2515273323457549</v>
+        <v>0.2148806425713816</v>
       </c>
     </row>
     <row r="5">
